--- a/testData/output.xlsx
+++ b/testData/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2304071\eclipse-workspace\Emi_calculator\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09370FD0-FABB-4DFB-9F31-762CE0C1497A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65819267-27EF-4638-BB9B-1C884DE2C280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F161F325-7D49-4C35-8F38-6FDEE390C1F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="56">
   <si>
     <t>Year</t>
   </si>
@@ -65,100 +65,103 @@
     <t>2024</t>
   </si>
   <si>
-    <t>₹ 2,43,055</t>
-  </si>
-  <si>
-    <t>₹ 1,23,434</t>
-  </si>
-  <si>
-    <t>₹ 33,000</t>
-  </si>
-  <si>
-    <t>₹ 3,99,489</t>
-  </si>
-  <si>
-    <t>₹ 13,61,945</t>
-  </si>
-  <si>
-    <t>15.14%</t>
+    <t>₹ 2,19,438</t>
+  </si>
+  <si>
+    <t>₹ 1,12,695</t>
+  </si>
+  <si>
+    <t>₹ 30,000</t>
+  </si>
+  <si>
+    <t>₹ 3,62,134</t>
+  </si>
+  <si>
+    <t>₹ 13,80,562</t>
+  </si>
+  <si>
+    <t>13.71%</t>
   </si>
   <si>
     <t>2025</t>
   </si>
   <si>
-    <t>₹ 2,88,957</t>
-  </si>
-  <si>
-    <t>₹ 1,10,849</t>
+    <t>₹ 2,85,913</t>
+  </si>
+  <si>
+    <t>₹ 1,12,648</t>
   </si>
   <si>
     <t>₹ 36,000</t>
   </si>
   <si>
+    <t>₹ 4,34,560</t>
+  </si>
+  <si>
+    <t>₹ 10,94,649</t>
+  </si>
+  <si>
+    <t>31.58%</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>₹ 3,13,711</t>
+  </si>
+  <si>
+    <t>₹ 86,095</t>
+  </si>
+  <si>
     <t>₹ 4,35,806</t>
   </si>
   <si>
-    <t>₹ 10,72,988</t>
-  </si>
-  <si>
-    <t>33.15%</t>
-  </si>
-  <si>
-    <t>2026</t>
-  </si>
-  <si>
-    <t>₹ 3,16,064</t>
-  </si>
-  <si>
-    <t>₹ 83,742</t>
-  </si>
-  <si>
-    <t>₹ 7,56,924</t>
-  </si>
-  <si>
-    <t>52.84%</t>
+    <t>₹ 7,84,359</t>
+  </si>
+  <si>
+    <t>51.13%</t>
   </si>
   <si>
     <t>2027</t>
   </si>
   <si>
-    <t>₹ 3,45,713</t>
-  </si>
-  <si>
-    <t>₹ 54,093</t>
-  </si>
-  <si>
-    <t>₹ 4,11,212</t>
-  </si>
-  <si>
-    <t>74.38%</t>
+    <t>₹ 3,43,139</t>
+  </si>
+  <si>
+    <t>₹ 56,667</t>
+  </si>
+  <si>
+    <t>₹ 4,41,220</t>
+  </si>
+  <si>
+    <t>72.51%</t>
   </si>
   <si>
     <t>2028</t>
   </si>
   <si>
-    <t>₹ 3,78,143</t>
-  </si>
-  <si>
-    <t>₹ 21,663</t>
-  </si>
-  <si>
-    <t>₹ 33,069</t>
-  </si>
-  <si>
-    <t>97.94%</t>
+    <t>₹ 3,75,328</t>
+  </si>
+  <si>
+    <t>₹ 24,478</t>
+  </si>
+  <si>
+    <t>₹ 65,892</t>
+  </si>
+  <si>
+    <t>95.89%</t>
   </si>
   <si>
     <t>2029</t>
   </si>
   <si>
-    <t>₹ 248</t>
-  </si>
-  <si>
-    <t>₹ 3,000</t>
-  </si>
-  <si>
-    <t>₹ 36,317</t>
+    <t>₹ 742</t>
+  </si>
+  <si>
+    <t>₹ 6,000</t>
+  </si>
+  <si>
+    <t>₹ 72,634</t>
   </si>
   <si>
     <t>₹ 0</t>
@@ -167,28 +170,40 @@
     <t>100%</t>
   </si>
   <si>
-    <t>₹ 2,42,297</t>
-  </si>
-  <si>
-    <t>₹ 1,23,050</t>
-  </si>
-  <si>
-    <t>₹ 3,98,347</t>
-  </si>
-  <si>
-    <t>₹ 13,57,703</t>
-  </si>
-  <si>
-    <t>₹ 2,88,057</t>
-  </si>
-  <si>
-    <t>₹ 1,10,503</t>
-  </si>
-  <si>
-    <t>₹ 4,34,560</t>
-  </si>
-  <si>
-    <t>₹ 10,69,645</t>
+    <t>₹ 2,86,806</t>
+  </si>
+  <si>
+    <t>₹ 1,13,000</t>
+  </si>
+  <si>
+    <t>₹ 10,98,070</t>
+  </si>
+  <si>
+    <t>₹ 1,13,048</t>
+  </si>
+  <si>
+    <t>₹ 3,63,172</t>
+  </si>
+  <si>
+    <t>₹ 13,84,876</t>
+  </si>
+  <si>
+    <t>₹ 1,48,969</t>
+  </si>
+  <si>
+    <t>₹ 2,09,945</t>
+  </si>
+  <si>
+    <t>₹ 19,69,024</t>
+  </si>
+  <si>
+    <t>1.55%</t>
+  </si>
+  <si>
+    <t>₹ 2,500</t>
+  </si>
+  <si>
+    <t>₹ 2,20,124</t>
   </si>
 </sst>
 </file>
@@ -231,1051 +246,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="702">
+  <cellXfs count="355">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
@@ -2653,7 +1627,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G25"/>
+      <selection sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2662,53 +1636,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="652">
+      <c r="A1" t="s" s="305">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="653">
+      <c r="B1" t="s" s="306">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="654">
+      <c r="C1" t="s" s="307">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="655">
+      <c r="D1" t="s" s="308">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="656">
+      <c r="E1" t="s" s="309">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="657">
+      <c r="F1" t="s" s="310">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="658">
+      <c r="G1" t="s" s="311">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="659">
+      <c r="A2" t="s" s="312">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="660">
+      <c r="A3" t="s" s="313">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="661">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s" s="662">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s" s="663">
+      <c r="B3" t="s" s="314">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s" s="315">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s" s="316">
         <v>11</v>
       </c>
-      <c r="E3" t="s" s="664">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s" s="665">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s" s="666">
+      <c r="E3" t="s" s="317">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s" s="318">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s" s="319">
         <v>14</v>
       </c>
     </row>
@@ -2722,25 +1696,25 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="667">
+      <c r="A5" t="s" s="320">
         <v>15</v>
       </c>
-      <c r="B5" t="s" s="668">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s" s="669">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s" s="670">
+      <c r="B5" t="s" s="321">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s" s="322">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s" s="323">
         <v>18</v>
       </c>
-      <c r="E5" t="s" s="671">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s" s="672">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s" s="673">
+      <c r="E5" t="s" s="324">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s" s="325">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s" s="326">
         <v>21</v>
       </c>
     </row>
@@ -2754,52 +1728,52 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="674">
+      <c r="A7" t="s" s="327">
         <v>22</v>
       </c>
-      <c r="B7" t="s" s="675">
+      <c r="B7" t="s" s="328">
         <v>23</v>
       </c>
-      <c r="C7" t="s" s="676">
+      <c r="C7" t="s" s="329">
         <v>24</v>
       </c>
-      <c r="D7" t="s" s="677">
+      <c r="D7" t="s" s="330">
         <v>18</v>
       </c>
-      <c r="E7" t="s" s="678">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s" s="679">
+      <c r="E7" t="s" s="331">
         <v>25</v>
       </c>
-      <c r="G7" t="s" s="680">
+      <c r="F7" t="s" s="332">
         <v>26</v>
+      </c>
+      <c r="G7" t="s" s="333">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="681">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s" s="682">
+      <c r="A9" t="s" s="334">
         <v>28</v>
       </c>
-      <c r="C9" t="s" s="683">
+      <c r="B9" t="s" s="335">
         <v>29</v>
       </c>
-      <c r="D9" t="s" s="684">
+      <c r="C9" t="s" s="336">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s" s="337">
         <v>18</v>
       </c>
-      <c r="E9" t="s" s="685">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s" s="686">
-        <v>30</v>
-      </c>
-      <c r="G9" t="s" s="687">
+      <c r="E9" t="s" s="338">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s" s="339">
         <v>31</v>
+      </c>
+      <c r="G9" t="s" s="340">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -2812,26 +1786,26 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="688">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s" s="689">
+      <c r="A11" t="s" s="341">
         <v>33</v>
       </c>
-      <c r="C11" t="s" s="690">
+      <c r="B11" t="s" s="342">
         <v>34</v>
       </c>
-      <c r="D11" t="s" s="691">
+      <c r="C11" t="s" s="343">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s" s="344">
         <v>18</v>
       </c>
-      <c r="E11" t="s" s="692">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s" s="693">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s" s="694">
+      <c r="E11" t="s" s="345">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s" s="346">
         <v>36</v>
+      </c>
+      <c r="G11" t="s" s="347">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -2844,26 +1818,26 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="695">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s" s="696">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s" s="697">
+      <c r="A13" t="s" s="348">
         <v>38</v>
       </c>
-      <c r="D13" t="s" s="698">
+      <c r="B13" t="s" s="349">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s" s="350">
         <v>39</v>
       </c>
-      <c r="E13" t="s" s="699">
+      <c r="D13" t="s" s="351">
         <v>40</v>
       </c>
-      <c r="F13" t="s" s="700">
+      <c r="E13" t="s" s="352">
         <v>41</v>
       </c>
-      <c r="G13" t="s" s="701">
+      <c r="F13" t="s" s="353">
         <v>42</v>
+      </c>
+      <c r="G13" t="s" s="354">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">

--- a/testData/output.xlsx
+++ b/testData/output.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="56">
   <si>
     <t>Year</t>
   </si>
@@ -246,10 +246,1810 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="355">
+  <cellXfs count="955">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
@@ -1636,53 +3436,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="305">
+      <c r="A1" t="s" s="905">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="306">
+      <c r="B1" t="s" s="906">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="307">
+      <c r="C1" t="s" s="907">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="308">
+      <c r="D1" t="s" s="908">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="309">
+      <c r="E1" t="s" s="909">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="310">
+      <c r="F1" t="s" s="910">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="311">
+      <c r="G1" t="s" s="911">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="312">
+      <c r="A2" t="s" s="912">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="313">
+      <c r="A3" t="s" s="913">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="314">
+      <c r="B3" t="s" s="914">
         <v>55</v>
       </c>
-      <c r="C3" t="s" s="315">
+      <c r="C3" t="s" s="915">
         <v>47</v>
       </c>
-      <c r="D3" t="s" s="316">
+      <c r="D3" t="s" s="916">
         <v>11</v>
       </c>
-      <c r="E3" t="s" s="317">
+      <c r="E3" t="s" s="917">
         <v>48</v>
       </c>
-      <c r="F3" t="s" s="318">
+      <c r="F3" t="s" s="918">
         <v>49</v>
       </c>
-      <c r="G3" t="s" s="319">
+      <c r="G3" t="s" s="919">
         <v>14</v>
       </c>
     </row>
@@ -1696,25 +3496,25 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="320">
+      <c r="A5" t="s" s="920">
         <v>15</v>
       </c>
-      <c r="B5" t="s" s="321">
+      <c r="B5" t="s" s="921">
         <v>44</v>
       </c>
-      <c r="C5" t="s" s="322">
+      <c r="C5" t="s" s="922">
         <v>45</v>
       </c>
-      <c r="D5" t="s" s="323">
+      <c r="D5" t="s" s="923">
         <v>18</v>
       </c>
-      <c r="E5" t="s" s="324">
+      <c r="E5" t="s" s="924">
         <v>25</v>
       </c>
-      <c r="F5" t="s" s="325">
+      <c r="F5" t="s" s="925">
         <v>46</v>
       </c>
-      <c r="G5" t="s" s="326">
+      <c r="G5" t="s" s="926">
         <v>21</v>
       </c>
     </row>
@@ -1728,25 +3528,25 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="327">
+      <c r="A7" t="s" s="927">
         <v>22</v>
       </c>
-      <c r="B7" t="s" s="328">
+      <c r="B7" t="s" s="928">
         <v>23</v>
       </c>
-      <c r="C7" t="s" s="329">
+      <c r="C7" t="s" s="929">
         <v>24</v>
       </c>
-      <c r="D7" t="s" s="330">
+      <c r="D7" t="s" s="930">
         <v>18</v>
       </c>
-      <c r="E7" t="s" s="331">
+      <c r="E7" t="s" s="931">
         <v>25</v>
       </c>
-      <c r="F7" t="s" s="332">
+      <c r="F7" t="s" s="932">
         <v>26</v>
       </c>
-      <c r="G7" t="s" s="333">
+      <c r="G7" t="s" s="933">
         <v>27</v>
       </c>
     </row>
@@ -1754,25 +3554,25 @@
       <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="334">
+      <c r="A9" t="s" s="934">
         <v>28</v>
       </c>
-      <c r="B9" t="s" s="335">
+      <c r="B9" t="s" s="935">
         <v>29</v>
       </c>
-      <c r="C9" t="s" s="336">
+      <c r="C9" t="s" s="936">
         <v>30</v>
       </c>
-      <c r="D9" t="s" s="337">
+      <c r="D9" t="s" s="937">
         <v>18</v>
       </c>
-      <c r="E9" t="s" s="338">
+      <c r="E9" t="s" s="938">
         <v>25</v>
       </c>
-      <c r="F9" t="s" s="339">
+      <c r="F9" t="s" s="939">
         <v>31</v>
       </c>
-      <c r="G9" t="s" s="340">
+      <c r="G9" t="s" s="940">
         <v>32</v>
       </c>
     </row>
@@ -1786,25 +3586,25 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="341">
+      <c r="A11" t="s" s="941">
         <v>33</v>
       </c>
-      <c r="B11" t="s" s="342">
+      <c r="B11" t="s" s="942">
         <v>34</v>
       </c>
-      <c r="C11" t="s" s="343">
+      <c r="C11" t="s" s="943">
         <v>35</v>
       </c>
-      <c r="D11" t="s" s="344">
+      <c r="D11" t="s" s="944">
         <v>18</v>
       </c>
-      <c r="E11" t="s" s="345">
+      <c r="E11" t="s" s="945">
         <v>25</v>
       </c>
-      <c r="F11" t="s" s="346">
+      <c r="F11" t="s" s="946">
         <v>36</v>
       </c>
-      <c r="G11" t="s" s="347">
+      <c r="G11" t="s" s="947">
         <v>37</v>
       </c>
     </row>
@@ -1818,25 +3618,25 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="348">
+      <c r="A13" t="s" s="948">
         <v>38</v>
       </c>
-      <c r="B13" t="s" s="349">
+      <c r="B13" t="s" s="949">
         <v>36</v>
       </c>
-      <c r="C13" t="s" s="350">
+      <c r="C13" t="s" s="950">
         <v>39</v>
       </c>
-      <c r="D13" t="s" s="351">
+      <c r="D13" t="s" s="951">
         <v>40</v>
       </c>
-      <c r="E13" t="s" s="352">
+      <c r="E13" t="s" s="952">
         <v>41</v>
       </c>
-      <c r="F13" t="s" s="353">
+      <c r="F13" t="s" s="953">
         <v>42</v>
       </c>
-      <c r="G13" t="s" s="354">
+      <c r="G13" t="s" s="954">
         <v>43</v>
       </c>
     </row>
